--- a/datasets/reservation70-00.xlsx
+++ b/datasets/reservation70-00.xlsx
@@ -5,26 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Work\Classes\Fall-2015\CSC465\Lectures\Lecture1\DataForGraphs2010-Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSC465\CSC465\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-105" windowWidth="17100" windowHeight="9615" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
-  <si>
-    <t>MONTANA AMERICAN INDIAN RESERVATION POPULATION: 1970 - 2000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
   <si>
     <t>1970*</t>
   </si>
@@ -59,9 +57,6 @@
     <t>1970-2000</t>
   </si>
   <si>
-    <t>Total Population</t>
-  </si>
-  <si>
     <t>* Population data for Reservations were not available before the 1970 Decennial Census</t>
   </si>
   <si>
@@ -81,6 +76,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -253,9 +251,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -288,14 +285,32 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,36 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,306 +635,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="2" max="7" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="7">
+        <v>1990</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1980</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1990</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1980</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="9">
+        <v>902195</v>
+      </c>
+      <c r="C3" s="9">
+        <v>799065</v>
+      </c>
+      <c r="D3" s="9">
+        <v>786690</v>
+      </c>
+      <c r="E3" s="9">
+        <v>694409</v>
+      </c>
+      <c r="F3" s="32">
+        <f>SUM((B3-E3)/E3)</f>
+        <v>0.29922711255182466</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>902195</v>
+        <v>10100</v>
       </c>
       <c r="C5" s="10">
-        <v>799065</v>
+        <v>8549</v>
       </c>
       <c r="D5" s="10">
-        <v>786690</v>
+        <v>6660</v>
       </c>
       <c r="E5" s="10">
-        <v>694409</v>
-      </c>
-      <c r="F5" s="27">
-        <f>SUM((B5-E5)/E5)</f>
-        <v>0.29922711255182466</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+        <v>4757</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" ref="F5:F11" si="0">SUM((B5-E5)/E5)</f>
+        <v>1.1231868824889637</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
-        <v>10100</v>
-      </c>
-      <c r="C7" s="11">
-        <v>8549</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6660</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4757</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" ref="F7:F13" si="0">SUM((B7-E7)/E7)</f>
-        <v>1.1231868824889637</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="B6" s="11">
         <v>6894</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C6" s="11">
         <v>6370</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D6" s="11">
         <v>5973</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E6" s="11">
         <v>3049</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F6" s="32">
         <f t="shared" si="0"/>
         <v>1.2610692030173827</v>
       </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
         <v>26172</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C7" s="10">
         <v>21259</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D7" s="10">
         <v>19628</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E7" s="10">
         <v>2537</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F7" s="32">
         <f t="shared" si="0"/>
         <v>9.3161214032321631</v>
       </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
         <v>2959</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C8" s="11">
         <v>2508</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D8" s="11">
         <v>2060</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E8" s="11">
         <v>1111</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F8" s="32">
         <f t="shared" si="0"/>
         <v>1.6633663366336633</v>
       </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
         <v>10321</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C9" s="10">
         <v>10595</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D9" s="10">
         <v>9921</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E9" s="10">
         <v>3182</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F9" s="32">
         <f t="shared" si="0"/>
         <v>2.2435575109993713</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
         <v>4470</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C10" s="11">
         <v>3923</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D10" s="11">
         <v>3664</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E10" s="11">
         <v>2357</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F10" s="32">
         <f t="shared" si="0"/>
         <v>0.8964785744590581</v>
       </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10">
         <v>2676</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C11" s="10">
         <v>1954</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D11" s="10">
         <v>1650</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E11" s="10">
         <v>1095</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F11" s="32">
         <f t="shared" si="0"/>
         <v>1.4438356164383561</v>
       </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
+  <mergeCells count="13">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -963,347 +924,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="45.7265625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20">
+        <v>10100</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21">
-        <v>10100</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B3" s="20">
+        <v>6894</v>
+      </c>
+      <c r="C3" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21">
-        <v>6894</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B4" s="20">
+        <v>26172</v>
+      </c>
+      <c r="C4" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21">
-        <v>26172</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B5" s="20">
+        <v>2959</v>
+      </c>
+      <c r="C5" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21">
-        <v>2959</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B6" s="20">
+        <v>10321</v>
+      </c>
+      <c r="C6" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
-        <v>10321</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B7" s="20">
+        <v>4470</v>
+      </c>
+      <c r="C7" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
-        <v>4470</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B8" s="20">
+        <v>2676</v>
+      </c>
+      <c r="C8" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="21">
-        <v>2676</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20">
+        <v>8549</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21">
-        <v>8549</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B10" s="20">
+        <v>6370</v>
+      </c>
+      <c r="C10" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="21">
-        <v>6370</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B11" s="20">
+        <v>21259</v>
+      </c>
+      <c r="C11" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21">
-        <v>21259</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B12" s="20">
+        <v>2508</v>
+      </c>
+      <c r="C12" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21">
-        <v>2508</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B13" s="20">
+        <v>10595</v>
+      </c>
+      <c r="C13" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
-        <v>10595</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B14" s="20">
+        <v>3923</v>
+      </c>
+      <c r="C14" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21">
-        <v>3923</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B15" s="20">
+        <v>1954</v>
+      </c>
+      <c r="C15" s="20">
         <v>1990</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21">
-        <v>1954</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20">
+        <v>6660</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="21">
-        <v>6660</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B17" s="20">
+        <v>5973</v>
+      </c>
+      <c r="C17" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="21">
-        <v>5973</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="B18" s="20">
+        <v>19628</v>
+      </c>
+      <c r="C18" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="21">
-        <v>19628</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="B19" s="20">
+        <v>2060</v>
+      </c>
+      <c r="C19" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="21">
-        <v>2060</v>
-      </c>
-      <c r="C19" s="21">
+      <c r="B20" s="20">
+        <v>9921</v>
+      </c>
+      <c r="C20" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="21">
-        <v>9921</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="B21" s="20">
+        <v>3664</v>
+      </c>
+      <c r="C21" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="21">
-        <v>3664</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="B22" s="20">
+        <v>1650</v>
+      </c>
+      <c r="C22" s="20">
         <v>1980</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="21">
-        <v>1650</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20">
+        <v>4757</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="21">
-        <v>4757</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B24" s="20">
+        <v>3049</v>
+      </c>
+      <c r="C24" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="21">
-        <v>3049</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="B25" s="20">
+        <v>2537</v>
+      </c>
+      <c r="C25" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="21">
-        <v>2537</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B26" s="20">
+        <v>1111</v>
+      </c>
+      <c r="C26" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="21">
-        <v>1111</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="B27" s="20">
+        <v>3182</v>
+      </c>
+      <c r="C27" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="21">
-        <v>3182</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="B28" s="20">
+        <v>2357</v>
+      </c>
+      <c r="C28" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="21">
-        <v>2357</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="B29" s="20">
+        <v>1095</v>
+      </c>
+      <c r="C29" s="20">
         <v>1970</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21">
-        <v>1095</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1315,226 +1274,549 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14">
         <v>2000</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="14">
         <v>1990</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="14">
         <v>1980</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="9">
+        <v>902195</v>
+      </c>
+      <c r="C2" s="9">
+        <v>799065</v>
+      </c>
+      <c r="D2" s="9">
+        <v>786690</v>
+      </c>
+      <c r="E2" s="9">
+        <v>694409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
-        <v>902195</v>
-      </c>
-      <c r="C2" s="10">
-        <v>799065</v>
-      </c>
-      <c r="D2" s="10">
-        <v>786690</v>
-      </c>
-      <c r="E2" s="10">
-        <v>694409</v>
-      </c>
-      <c r="F2" s="27">
-        <f>SUM((B2-E2)/E2)</f>
-        <v>0.29922711255182466</v>
-      </c>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="10">
+        <v>10100</v>
+      </c>
+      <c r="C3" s="10">
+        <v>8549</v>
+      </c>
+      <c r="D3" s="10">
+        <v>6660</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
-        <v>10100</v>
-      </c>
-      <c r="C3" s="11">
-        <v>8549</v>
-      </c>
-      <c r="D3" s="11">
-        <v>6660</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4757</v>
-      </c>
-      <c r="F3" s="27">
-        <f t="shared" ref="F3:F9" si="0">SUM((B3-E3)/E3)</f>
-        <v>1.1231868824889637</v>
-      </c>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="11">
+        <v>6894</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6370</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5973</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>6894</v>
-      </c>
-      <c r="C4" s="12">
-        <v>6370</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5973</v>
-      </c>
-      <c r="E4" s="12">
-        <v>3049</v>
-      </c>
-      <c r="F4" s="27">
-        <f t="shared" si="0"/>
-        <v>1.2610692030173827</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="10">
+        <v>26172</v>
+      </c>
+      <c r="C5" s="10">
+        <v>21259</v>
+      </c>
+      <c r="D5" s="10">
+        <v>19628</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
-        <v>26172</v>
-      </c>
-      <c r="C5" s="11">
-        <v>21259</v>
-      </c>
-      <c r="D5" s="11">
-        <v>19628</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2537</v>
-      </c>
-      <c r="F5" s="27">
-        <f t="shared" si="0"/>
-        <v>9.3161214032321631</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="11">
+        <v>2959</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2508</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2060</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
-        <v>2959</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2508</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2060</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1111</v>
-      </c>
-      <c r="F6" s="27">
-        <f t="shared" si="0"/>
-        <v>1.6633663366336633</v>
-      </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="10">
+        <v>10321</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10595</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9921</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
-        <v>10321</v>
-      </c>
-      <c r="C7" s="11">
-        <v>10595</v>
-      </c>
-      <c r="D7" s="11">
-        <v>9921</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3182</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" si="0"/>
-        <v>2.2435575109993713</v>
-      </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="11">
+        <v>4470</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3923</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3664</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
-        <v>4470</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3923</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3664</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2357</v>
-      </c>
-      <c r="F8" s="27">
-        <f t="shared" si="0"/>
-        <v>0.8964785744590581</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2676</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1954</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>1650</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1095</v>
       </c>
-      <c r="F9" s="27">
-        <f t="shared" si="0"/>
-        <v>1.4438356164383561</v>
-      </c>
-      <c r="G9" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>902195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>26172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1990</v>
+      </c>
+      <c r="C10">
+        <v>799065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1990</v>
+      </c>
+      <c r="C11">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1990</v>
+      </c>
+      <c r="C12">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1990</v>
+      </c>
+      <c r="C13">
+        <v>21259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1990</v>
+      </c>
+      <c r="C14">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1990</v>
+      </c>
+      <c r="C15">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1990</v>
+      </c>
+      <c r="C16">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1990</v>
+      </c>
+      <c r="C17">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1980</v>
+      </c>
+      <c r="C18">
+        <v>786690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1980</v>
+      </c>
+      <c r="C19">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1980</v>
+      </c>
+      <c r="C20">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1980</v>
+      </c>
+      <c r="C21">
+        <v>19628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1980</v>
+      </c>
+      <c r="C22">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1980</v>
+      </c>
+      <c r="C23">
+        <v>9921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1980</v>
+      </c>
+      <c r="C24">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1980</v>
+      </c>
+      <c r="C25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1970</v>
+      </c>
+      <c r="C26">
+        <v>694409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1970</v>
+      </c>
+      <c r="C27">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1970</v>
+      </c>
+      <c r="C28">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1970</v>
+      </c>
+      <c r="C29">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1970</v>
+      </c>
+      <c r="C30">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1970</v>
+      </c>
+      <c r="C31">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1970</v>
+      </c>
+      <c r="C32">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1970</v>
+      </c>
+      <c r="C33">
+        <v>1095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>